--- a/Sprint2 Backlog.xlsx
+++ b/Sprint2 Backlog.xlsx
@@ -242,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,13 +258,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -279,9 +310,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,226 +681,188 @@
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="7" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="D10" t="s">
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="10" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="D14" t="s">
-        <v>29</v>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-    </row>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="D21" t="s">
-        <v>30</v>
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="D22" t="s">
-        <v>31</v>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
+      <c r="A26" s="1"/>
+      <c r="D26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-    </row>
+      <c r="A27" s="1"/>
+      <c r="D27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="D35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="D40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="D41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="D42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A29" t="s">
         <v>19</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="31" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>21</v>
       </c>
-      <c r="E53" t="s">
+      <c r="D32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
         <v>39</v>
       </c>
     </row>
